--- a/GWASFiles.xlsx
+++ b/GWASFiles.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kl\Desktop\The University of Queensland\MLPRS\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C064A33-049F-4799-A7DD-E5A0CB5F4C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2340A186-ECBE-4034-A895-0E713739C9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Basic" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -288,7 +288,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -312,9 +312,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -322,27 +346,111 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="28">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="45" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -357,17 +465,485 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
       </border>
     </dxf>
   </dxfs>
@@ -384,34 +960,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4A7DE672-42AB-4B6B-B1E3-6BFC62B45BB8}" name="Table1" displayName="Table1" ref="A1:Y1048576" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
-  <autoFilter ref="A1:Y1048576" xr:uid="{4A7DE672-42AB-4B6B-B1E3-6BFC62B45BB8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6C5580AD-1159-4FC2-AD51-D5B4514B448C}" name="Table1" displayName="Table1" ref="A1:Y6" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="27">
+  <autoFilter ref="A1:Y6" xr:uid="{6C5580AD-1159-4FC2-AD51-D5B4514B448C}"/>
   <tableColumns count="25">
-    <tableColumn id="1" xr3:uid="{E3F2F19F-ECBE-44F4-A2A9-3666EE2B62E6}" name="Download Link"/>
-    <tableColumn id="2" xr3:uid="{85C97317-29DD-4486-A704-84093025DB59}" name="Temporary Name"/>
-    <tableColumn id="3" xr3:uid="{EDCA5DA7-131C-45DA-90C8-793E98823AC5}" name="index"/>
-    <tableColumn id="4" xr3:uid="{2137DFEB-78B4-4679-924F-D27DF0BB2782}" name="firstAuthor"/>
-    <tableColumn id="5" xr3:uid="{E670130F-8639-4890-AE67-BEF1B9EEDF93}" name="accessionId"/>
-    <tableColumn id="6" xr3:uid="{9D1B4CE2-9D9C-4521-BA2B-45C8164C7E67}" name="publicationDate"/>
-    <tableColumn id="7" xr3:uid="{23ACFA65-E37A-47FB-A201-D0FAF2BDDF3E}" name="journal"/>
-    <tableColumn id="8" xr3:uid="{49137019-EE07-407A-A835-658090ACF5D8}" name="title"/>
-    <tableColumn id="9" xr3:uid="{46BF72D6-0CA7-4869-8118-F967FD32E497}" name="reportedTrait"/>
-    <tableColumn id="10" xr3:uid="{8D7524AA-0D34-4154-A72C-8B0ECE876D84}" name="efoTraits"/>
-    <tableColumn id="11" xr3:uid="{289803E6-02A1-482A-8924-9A0864822ABF}" name="bgTraits"/>
-    <tableColumn id="12" xr3:uid="{D05A18D5-4957-4EFC-81C7-998E22DE957E}" name="discoverySampleAncestry"/>
-    <tableColumn id="13" xr3:uid="{F7C8CD32-D290-44DD-B9F0-B49E6EFC7E29}" name="replicationSampleAncestry"/>
-    <tableColumn id="14" xr3:uid="{1816436D-3577-483A-A136-EFDB6AB4E833}" name="associationCount"/>
-    <tableColumn id="15" xr3:uid="{91956EA7-5028-4492-891F-F18CC999182E}" name="summaryStatistics"/>
-    <tableColumn id="16" xr3:uid="{AE7AD089-4B82-40D6-801C-70B12B1572BB}" name="ssApiFlag"/>
-    <tableColumn id="17" xr3:uid="{2DA41EFB-95C7-4D3E-AA73-FC082442D130}" name="agreedToCc0"/>
-    <tableColumn id="18" xr3:uid="{5D80F23D-8BF9-4622-8845-36D49C88BE0F}" name="genotypingTechnologies"/>
-    <tableColumn id="19" xr3:uid="{86BBEC48-C367-4387-9CB3-501158C13BB6}" name="pubmedId"/>
-    <tableColumn id="20" xr3:uid="{D9373721-8C2F-4982-A8BF-F70463F5A84E}" name="initialSampleDescription"/>
-    <tableColumn id="21" xr3:uid="{F9021179-095A-4AC4-9851-66FC03A6E627}" name="replicateSampleDescription"/>
-    <tableColumn id="22" xr3:uid="{65FA1B03-24E6-47A1-B235-8B7731E434CF}" name="UKB_FIELD"/>
-    <tableColumn id="23" xr3:uid="{028787AF-E1DA-4BA6-B50B-2C8FE9DEFFBB}" name="SearchPhenotype"/>
-    <tableColumn id="24" xr3:uid="{C2196E93-1A51-4ABA-9A52-AEB9430E1799}" name="FuzzySimilarity_depression"/>
-    <tableColumn id="25" xr3:uid="{D84EEE6E-7E7A-4356-8D88-D8E97A556A4D}" name="FuzzySimilarity_migraine"/>
+    <tableColumn id="1" xr3:uid="{24B9775B-5CD2-42C8-B619-20EDBF2DCA78}" name="Download Link" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{BD2C7F7A-556C-4697-98FD-F09830C48471}" name="Temporary Name" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{3DB9A22E-F143-4A80-A812-58BB7F4EDB48}" name="index" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{44276548-E897-489E-A64D-FF4CE5F48CF6}" name="firstAuthor" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{9530EC79-2C91-4C75-95A7-CB0F371F5231}" name="accessionId" dataDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{2DE21923-3C9A-43FA-A3D3-19E6DDC72BD5}" name="publicationDate" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{3F98D502-C111-4583-9BAB-F2776E8E1F9A}" name="journal" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{AC1EB3D0-2220-48C6-A8BD-143558B8CC9A}" name="title" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{9D9DC60E-7EF6-4EE2-BE5C-06534E03BA90}" name="reportedTrait" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{31EABF3B-45B9-439C-AB8A-7FF208AECF07}" name="efoTraits" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{0034CFCA-437C-4079-8761-F5E84F74806A}" name="bgTraits" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{CD74B9A5-9735-49C3-A8C3-7E8BCD39EF03}" name="discoverySampleAncestry" dataDxfId="15"/>
+    <tableColumn id="13" xr3:uid="{EFF12B02-FAB0-4D5A-BC2E-483EF82F1406}" name="replicationSampleAncestry" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{68089196-1301-436B-82A0-6D675750FE75}" name="associationCount" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{6A5BA842-D41E-4AD2-9F8D-B13166B83799}" name="summaryStatistics" dataDxfId="12"/>
+    <tableColumn id="16" xr3:uid="{63FF5E53-8759-4646-BDF8-6D854F3937BB}" name="ssApiFlag" dataDxfId="11"/>
+    <tableColumn id="17" xr3:uid="{91125A52-226F-48BE-8690-E49CC1FDAF4D}" name="agreedToCc0" dataDxfId="10"/>
+    <tableColumn id="18" xr3:uid="{C12EBA2A-1539-4F24-BE90-0FC73A7BE1B4}" name="genotypingTechnologies" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{3E107DCF-DD97-4FA3-AB68-3B3B7255919E}" name="pubmedId" dataDxfId="8"/>
+    <tableColumn id="20" xr3:uid="{D334A1CB-EF67-4E4E-85E3-8D5363AD93E9}" name="initialSampleDescription" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{3D4C8E93-DD87-45EF-9355-5CCEEFB57789}" name="replicateSampleDescription" dataDxfId="6"/>
+    <tableColumn id="22" xr3:uid="{0ADD5313-AE10-467E-A0A6-CE38ADB150D8}" name="UKB_FIELD" dataDxfId="5"/>
+    <tableColumn id="23" xr3:uid="{12215E71-5E13-4F65-B6EB-A2B192492B22}" name="SearchPhenotype" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{5D83CDB6-13ED-440F-87B8-89225938065D}" name="FuzzySimilarity_depression" dataDxfId="3"/>
+    <tableColumn id="25" xr3:uid="{2BEFD586-7843-4F09-9447-AA999127743E}" name="FuzzySimilarity_migraine" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -683,22 +1259,21 @@
   <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.109375" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1"/>
+    <col min="1" max="1" width="59.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" customWidth="1"/>
     <col min="6" max="6" width="15.77734375" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" customWidth="1"/>
     <col min="10" max="10" width="10.21875" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" customWidth="1"/>
     <col min="12" max="12" width="23.44140625" customWidth="1"/>
-    <col min="13" max="13" width="24.44140625" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
     <col min="15" max="15" width="17.5546875" customWidth="1"/>
     <col min="16" max="16" width="10.21875" customWidth="1"/>
@@ -713,437 +1288,437 @@
     <col min="25" max="25" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="97.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:25" ht="97.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>28383</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>44487</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1">
         <v>0</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="R2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="1">
         <v>34662886</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3" t="s">
+      <c r="U2" s="1"/>
+      <c r="V2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="W2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3">
+      <c r="X2" s="1"/>
+      <c r="Y2" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>8239</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="2">
         <v>44504</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1">
         <v>0</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="1">
         <v>34737426</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3" t="s">
+      <c r="U3" s="1"/>
+      <c r="V3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="W3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3">
+      <c r="X3" s="1"/>
+      <c r="Y3" s="4">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>28183</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="2">
         <v>44294</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3">
+      <c r="M4" s="1"/>
+      <c r="N4" s="1">
         <v>0</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="1">
         <v>33959723</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3" t="s">
+      <c r="U4" s="1"/>
+      <c r="V4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="1">
         <v>100</v>
       </c>
-      <c r="Y4" s="3"/>
+      <c r="Y4" s="4"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>46393</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>43216</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3">
+      <c r="M5" s="1"/>
+      <c r="N5" s="1">
         <v>44</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="R5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="1">
         <v>29700475</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3" t="s">
+      <c r="U5" s="1"/>
+      <c r="V5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W5" s="3" t="s">
+      <c r="W5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X5" s="1">
         <v>100</v>
       </c>
-      <c r="Y5" s="3"/>
+      <c r="Y5" s="4"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:25" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="9">
         <v>30729</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="10">
         <v>44646</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3">
+      <c r="M6" s="9"/>
+      <c r="N6" s="9">
         <v>0</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="R6" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="9">
         <v>35347114</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="T6" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3" t="s">
+      <c r="U6" s="9"/>
+      <c r="V6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="W6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="9">
         <v>61</v>
       </c>
-      <c r="Y6" s="3"/>
+      <c r="Y6" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
